--- a/Documentacion/Requerimientos.xlsx
+++ b/Documentacion/Requerimientos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ALM-Francisco\Desktop\UTL\Proyectos\A1.7 Arquitectura\Documentacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{159357FE-E23A-41DB-9347-F349280F86A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D56932D-33CC-45A8-826D-C7F2A4382380}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{0DD95DC4-CFA9-4413-AB4E-FD60D3CB2D11}"/>
   </bookViews>
@@ -754,7 +754,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -762,121 +762,153 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -889,46 +921,25 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1267,8 +1278,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{170C30D0-B325-4C50-BD6E-C498F62C109A}">
   <dimension ref="A2:K78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18:C19"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11:C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1289,1174 +1300,1172 @@
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
     </row>
     <row r="3" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="57" t="s">
+      <c r="C3" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="42" t="s">
+      <c r="D3" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="43"/>
-      <c r="J3" s="43"/>
-      <c r="K3" s="44"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="53"/>
+      <c r="K3" s="54"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A4" s="26"/>
-      <c r="B4" s="19"/>
-      <c r="C4" s="57"/>
-      <c r="D4" s="45" t="s">
+      <c r="A4" s="48"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="46"/>
-      <c r="J4" s="46"/>
-      <c r="K4" s="47"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="56"/>
+      <c r="K4" s="57"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A5" s="26"/>
-      <c r="B5" s="19"/>
-      <c r="C5" s="57"/>
-      <c r="D5" s="48" t="s">
+      <c r="A5" s="48"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="49"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="49"/>
-      <c r="H5" s="49"/>
-      <c r="I5" s="49"/>
-      <c r="J5" s="49"/>
-      <c r="K5" s="50"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="43"/>
+      <c r="G5" s="43"/>
+      <c r="H5" s="43"/>
+      <c r="I5" s="43"/>
+      <c r="J5" s="43"/>
+      <c r="K5" s="44"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A6" s="26"/>
-      <c r="B6" s="19"/>
-      <c r="C6" s="21" t="s">
+      <c r="A6" s="48"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="51" t="s">
+      <c r="D6" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="52"/>
-      <c r="F6" s="52"/>
-      <c r="G6" s="52"/>
-      <c r="H6" s="52"/>
-      <c r="I6" s="52"/>
-      <c r="J6" s="52"/>
-      <c r="K6" s="53"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="15"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A7" s="26"/>
-      <c r="B7" s="19"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="6" t="s">
+      <c r="A7" s="48"/>
+      <c r="B7" s="62"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="15"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="56"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="56"/>
+      <c r="J7" s="56"/>
+      <c r="K7" s="57"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A8" s="26"/>
-      <c r="B8" s="19"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="6" t="s">
+      <c r="A8" s="48"/>
+      <c r="B8" s="62"/>
+      <c r="C8" s="50"/>
+      <c r="D8" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="15"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="56"/>
+      <c r="G8" s="56"/>
+      <c r="H8" s="56"/>
+      <c r="I8" s="56"/>
+      <c r="J8" s="56"/>
+      <c r="K8" s="57"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A9" s="26"/>
-      <c r="B9" s="19"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="6" t="s">
+      <c r="A9" s="48"/>
+      <c r="B9" s="62"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="15"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="56"/>
+      <c r="G9" s="56"/>
+      <c r="H9" s="56"/>
+      <c r="I9" s="56"/>
+      <c r="J9" s="56"/>
+      <c r="K9" s="57"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A10" s="26"/>
-      <c r="B10" s="19"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="8" t="s">
+      <c r="A10" s="48"/>
+      <c r="B10" s="62"/>
+      <c r="C10" s="50"/>
+      <c r="D10" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="16"/>
+      <c r="E10" s="43"/>
+      <c r="F10" s="43"/>
+      <c r="G10" s="43"/>
+      <c r="H10" s="43"/>
+      <c r="I10" s="43"/>
+      <c r="J10" s="43"/>
+      <c r="K10" s="44"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A11" s="26"/>
-      <c r="B11" s="19"/>
-      <c r="C11" s="22" t="s">
+      <c r="A11" s="48"/>
+      <c r="B11" s="62"/>
+      <c r="C11" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="51" t="s">
+      <c r="D11" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="52"/>
-      <c r="F11" s="52"/>
-      <c r="G11" s="52"/>
-      <c r="H11" s="52"/>
-      <c r="I11" s="52"/>
-      <c r="J11" s="52"/>
-      <c r="K11" s="53"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="15"/>
     </row>
     <row r="12" spans="1:11" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="26"/>
-      <c r="B12" s="19"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="17" t="s">
+      <c r="A12" s="48"/>
+      <c r="B12" s="62"/>
+      <c r="C12" s="59"/>
+      <c r="D12" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="15"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="56"/>
+      <c r="G12" s="56"/>
+      <c r="H12" s="56"/>
+      <c r="I12" s="56"/>
+      <c r="J12" s="56"/>
+      <c r="K12" s="57"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A13" s="26"/>
-      <c r="B13" s="19"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="6" t="s">
+      <c r="A13" s="48"/>
+      <c r="B13" s="62"/>
+      <c r="C13" s="59"/>
+      <c r="D13" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="15"/>
+      <c r="E13" s="56"/>
+      <c r="F13" s="56"/>
+      <c r="G13" s="56"/>
+      <c r="H13" s="56"/>
+      <c r="I13" s="56"/>
+      <c r="J13" s="56"/>
+      <c r="K13" s="57"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A14" s="26"/>
-      <c r="B14" s="19"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="6" t="s">
+      <c r="A14" s="48"/>
+      <c r="B14" s="62"/>
+      <c r="C14" s="59"/>
+      <c r="D14" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="15"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="56"/>
+      <c r="G14" s="56"/>
+      <c r="H14" s="56"/>
+      <c r="I14" s="56"/>
+      <c r="J14" s="56"/>
+      <c r="K14" s="57"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A15" s="26"/>
-      <c r="B15" s="19"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="8" t="s">
+      <c r="A15" s="48"/>
+      <c r="B15" s="62"/>
+      <c r="C15" s="60"/>
+      <c r="D15" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="16"/>
+      <c r="E15" s="43"/>
+      <c r="F15" s="43"/>
+      <c r="G15" s="43"/>
+      <c r="H15" s="43"/>
+      <c r="I15" s="43"/>
+      <c r="J15" s="43"/>
+      <c r="K15" s="44"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A16" s="26"/>
-      <c r="B16" s="19"/>
-      <c r="C16" s="22" t="s">
+      <c r="A16" s="48"/>
+      <c r="B16" s="62"/>
+      <c r="C16" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="15"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A17" s="26"/>
-      <c r="B17" s="19"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="8" t="s">
+      <c r="A17" s="48"/>
+      <c r="B17" s="62"/>
+      <c r="C17" s="60"/>
+      <c r="D17" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="16"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="43"/>
+      <c r="G17" s="43"/>
+      <c r="H17" s="43"/>
+      <c r="I17" s="43"/>
+      <c r="J17" s="43"/>
+      <c r="K17" s="44"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A18" s="26"/>
-      <c r="B18" s="19"/>
-      <c r="C18" s="58" t="s">
+      <c r="A18" s="48"/>
+      <c r="B18" s="62"/>
+      <c r="C18" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="51" t="s">
+      <c r="D18" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E18" s="52"/>
-      <c r="F18" s="52"/>
-      <c r="G18" s="52"/>
-      <c r="H18" s="52"/>
-      <c r="I18" s="52"/>
-      <c r="J18" s="52"/>
-      <c r="K18" s="53"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="15"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A19" s="27"/>
-      <c r="B19" s="20"/>
-      <c r="C19" s="59"/>
-      <c r="D19" s="48" t="s">
+      <c r="A19" s="49"/>
+      <c r="B19" s="46"/>
+      <c r="C19" s="46"/>
+      <c r="D19" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="E19" s="49"/>
-      <c r="F19" s="49"/>
-      <c r="G19" s="49"/>
-      <c r="H19" s="49"/>
-      <c r="I19" s="49"/>
-      <c r="J19" s="49"/>
-      <c r="K19" s="50"/>
+      <c r="E19" s="43"/>
+      <c r="F19" s="43"/>
+      <c r="G19" s="43"/>
+      <c r="H19" s="43"/>
+      <c r="I19" s="43"/>
+      <c r="J19" s="43"/>
+      <c r="K19" s="44"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A20" s="28" t="s">
+      <c r="A20" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="B20" s="18" t="s">
+      <c r="B20" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="22" t="s">
+      <c r="C20" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D20" s="51" t="s">
+      <c r="D20" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="E20" s="52"/>
-      <c r="F20" s="52"/>
-      <c r="G20" s="52"/>
-      <c r="H20" s="52"/>
-      <c r="I20" s="52"/>
-      <c r="J20" s="52"/>
-      <c r="K20" s="53"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="15"/>
     </row>
     <row r="21" spans="1:11" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="29"/>
-      <c r="B21" s="19"/>
-      <c r="C21" s="23"/>
-      <c r="D21" s="17" t="s">
+      <c r="A21" s="40"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="15"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="18"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A22" s="29"/>
-      <c r="B22" s="19"/>
-      <c r="C22" s="23"/>
-      <c r="D22" s="6" t="s">
+      <c r="A22" s="40"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="15"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="18"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A23" s="29"/>
-      <c r="B23" s="19"/>
-      <c r="C23" s="23"/>
-      <c r="D23" s="6" t="s">
+      <c r="A23" s="40"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="15"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="18"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A24" s="29"/>
-      <c r="B24" s="19"/>
-      <c r="C24" s="24"/>
-      <c r="D24" s="8" t="s">
+      <c r="A24" s="40"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="9"/>
-      <c r="K24" s="16"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="20"/>
+      <c r="K24" s="21"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A25" s="29"/>
-      <c r="B25" s="19"/>
-      <c r="C25" s="22" t="s">
+      <c r="A25" s="40"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="D25" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="14"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="23"/>
+      <c r="I25" s="23"/>
+      <c r="J25" s="23"/>
+      <c r="K25" s="24"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A26" s="29"/>
-      <c r="B26" s="19"/>
-      <c r="C26" s="23"/>
-      <c r="D26" s="6" t="s">
+      <c r="A26" s="40"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="7"/>
-      <c r="K26" s="15"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="17"/>
+      <c r="J26" s="17"/>
+      <c r="K26" s="18"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A27" s="29"/>
-      <c r="B27" s="19"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="6" t="s">
+      <c r="A27" s="40"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="7"/>
-      <c r="K27" s="15"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="17"/>
+      <c r="I27" s="17"/>
+      <c r="J27" s="17"/>
+      <c r="K27" s="18"/>
     </row>
     <row r="28" spans="1:11" ht="43" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="29"/>
-      <c r="B28" s="19"/>
-      <c r="C28" s="23"/>
-      <c r="D28" s="17" t="s">
+      <c r="A28" s="40"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="7"/>
-      <c r="J28" s="7"/>
-      <c r="K28" s="15"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="17"/>
+      <c r="I28" s="17"/>
+      <c r="J28" s="17"/>
+      <c r="K28" s="18"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A29" s="29"/>
-      <c r="B29" s="19"/>
-      <c r="C29" s="24"/>
-      <c r="D29" s="8" t="s">
+      <c r="A29" s="40"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="27"/>
+      <c r="D29" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="9"/>
-      <c r="J29" s="9"/>
-      <c r="K29" s="16"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="20"/>
+      <c r="H29" s="20"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="20"/>
+      <c r="K29" s="21"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A30" s="29"/>
-      <c r="B30" s="19"/>
-      <c r="C30" s="18" t="s">
+      <c r="A30" s="40"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D30" s="51" t="s">
+      <c r="D30" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="E30" s="52"/>
-      <c r="F30" s="52"/>
-      <c r="G30" s="52"/>
-      <c r="H30" s="52"/>
-      <c r="I30" s="52"/>
-      <c r="J30" s="52"/>
-      <c r="K30" s="53"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="14"/>
+      <c r="J30" s="14"/>
+      <c r="K30" s="15"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A31" s="29"/>
-      <c r="B31" s="19"/>
-      <c r="C31" s="19"/>
-      <c r="D31" s="6" t="s">
+      <c r="A31" s="40"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="7"/>
-      <c r="I31" s="7"/>
-      <c r="J31" s="7"/>
-      <c r="K31" s="15"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="17"/>
+      <c r="I31" s="17"/>
+      <c r="J31" s="17"/>
+      <c r="K31" s="18"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A32" s="29"/>
-      <c r="B32" s="19"/>
-      <c r="C32" s="20"/>
-      <c r="D32" s="8" t="s">
+      <c r="A32" s="40"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="9"/>
-      <c r="I32" s="9"/>
-      <c r="J32" s="9"/>
-      <c r="K32" s="16"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="20"/>
+      <c r="G32" s="20"/>
+      <c r="H32" s="20"/>
+      <c r="I32" s="20"/>
+      <c r="J32" s="20"/>
+      <c r="K32" s="21"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A33" s="29"/>
-      <c r="B33" s="19"/>
-      <c r="C33" s="18" t="s">
+      <c r="A33" s="40"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="D33" s="4" t="s">
+      <c r="D33" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
-      <c r="I33" s="5"/>
-      <c r="J33" s="5"/>
-      <c r="K33" s="14"/>
+      <c r="E33" s="23"/>
+      <c r="F33" s="23"/>
+      <c r="G33" s="23"/>
+      <c r="H33" s="23"/>
+      <c r="I33" s="23"/>
+      <c r="J33" s="23"/>
+      <c r="K33" s="24"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A34" s="29"/>
-      <c r="B34" s="19"/>
-      <c r="C34" s="19"/>
-      <c r="D34" s="6" t="s">
+      <c r="A34" s="40"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="7"/>
-      <c r="H34" s="7"/>
-      <c r="I34" s="7"/>
-      <c r="J34" s="7"/>
-      <c r="K34" s="15"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="17"/>
+      <c r="G34" s="17"/>
+      <c r="H34" s="17"/>
+      <c r="I34" s="17"/>
+      <c r="J34" s="17"/>
+      <c r="K34" s="18"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A35" s="30"/>
-      <c r="B35" s="20"/>
-      <c r="C35" s="20"/>
-      <c r="D35" s="8" t="s">
+      <c r="A35" s="41"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="E35" s="9"/>
-      <c r="F35" s="9"/>
-      <c r="G35" s="9"/>
-      <c r="H35" s="9"/>
-      <c r="I35" s="9"/>
-      <c r="J35" s="9"/>
-      <c r="K35" s="16"/>
+      <c r="E35" s="20"/>
+      <c r="F35" s="20"/>
+      <c r="G35" s="20"/>
+      <c r="H35" s="20"/>
+      <c r="I35" s="20"/>
+      <c r="J35" s="20"/>
+      <c r="K35" s="21"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A36" s="31" t="s">
+      <c r="A36" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="B36" s="18" t="s">
+      <c r="B36" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C36" s="18" t="s">
+      <c r="C36" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="D36" s="51" t="s">
+      <c r="D36" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="E36" s="52"/>
-      <c r="F36" s="52"/>
-      <c r="G36" s="52"/>
-      <c r="H36" s="52"/>
-      <c r="I36" s="52"/>
-      <c r="J36" s="52"/>
-      <c r="K36" s="53"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="14"/>
+      <c r="H36" s="14"/>
+      <c r="I36" s="14"/>
+      <c r="J36" s="14"/>
+      <c r="K36" s="15"/>
     </row>
     <row r="37" spans="1:11" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="32"/>
-      <c r="B37" s="19"/>
-      <c r="C37" s="19"/>
-      <c r="D37" s="17" t="s">
+      <c r="A37" s="35"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="E37" s="7"/>
-      <c r="F37" s="7"/>
-      <c r="G37" s="7"/>
-      <c r="H37" s="7"/>
-      <c r="I37" s="7"/>
-      <c r="J37" s="7"/>
-      <c r="K37" s="15"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="17"/>
+      <c r="G37" s="17"/>
+      <c r="H37" s="17"/>
+      <c r="I37" s="17"/>
+      <c r="J37" s="17"/>
+      <c r="K37" s="18"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A38" s="32"/>
-      <c r="B38" s="19"/>
-      <c r="C38" s="19"/>
-      <c r="D38" s="54" t="s">
+      <c r="A38" s="35"/>
+      <c r="B38" s="9"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="E38" s="55"/>
-      <c r="F38" s="55"/>
-      <c r="G38" s="55"/>
-      <c r="H38" s="55"/>
-      <c r="I38" s="55"/>
-      <c r="J38" s="55"/>
-      <c r="K38" s="56"/>
+      <c r="E38" s="37"/>
+      <c r="F38" s="37"/>
+      <c r="G38" s="37"/>
+      <c r="H38" s="37"/>
+      <c r="I38" s="37"/>
+      <c r="J38" s="37"/>
+      <c r="K38" s="38"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A39" s="32"/>
-      <c r="B39" s="19"/>
-      <c r="C39" s="19"/>
-      <c r="D39" s="6" t="s">
+      <c r="A39" s="35"/>
+      <c r="B39" s="9"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="E39" s="7"/>
-      <c r="F39" s="7"/>
-      <c r="G39" s="7"/>
-      <c r="H39" s="7"/>
-      <c r="I39" s="7"/>
-      <c r="J39" s="7"/>
-      <c r="K39" s="15"/>
+      <c r="E39" s="17"/>
+      <c r="F39" s="17"/>
+      <c r="G39" s="17"/>
+      <c r="H39" s="17"/>
+      <c r="I39" s="17"/>
+      <c r="J39" s="17"/>
+      <c r="K39" s="18"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A40" s="32"/>
-      <c r="B40" s="19"/>
-      <c r="C40" s="20"/>
-      <c r="D40" s="8" t="s">
+      <c r="A40" s="35"/>
+      <c r="B40" s="9"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="E40" s="9"/>
-      <c r="F40" s="9"/>
-      <c r="G40" s="9"/>
-      <c r="H40" s="9"/>
-      <c r="I40" s="9"/>
-      <c r="J40" s="9"/>
-      <c r="K40" s="16"/>
+      <c r="E40" s="20"/>
+      <c r="F40" s="20"/>
+      <c r="G40" s="20"/>
+      <c r="H40" s="20"/>
+      <c r="I40" s="20"/>
+      <c r="J40" s="20"/>
+      <c r="K40" s="21"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A41" s="32"/>
-      <c r="B41" s="19"/>
-      <c r="C41" s="18" t="s">
+      <c r="A41" s="35"/>
+      <c r="B41" s="9"/>
+      <c r="C41" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="D41" s="51" t="s">
+      <c r="D41" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="E41" s="52"/>
-      <c r="F41" s="52"/>
-      <c r="G41" s="52"/>
-      <c r="H41" s="52"/>
-      <c r="I41" s="52"/>
-      <c r="J41" s="52"/>
-      <c r="K41" s="53"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
+      <c r="G41" s="14"/>
+      <c r="H41" s="14"/>
+      <c r="I41" s="14"/>
+      <c r="J41" s="14"/>
+      <c r="K41" s="15"/>
     </row>
     <row r="42" spans="1:11" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="32"/>
-      <c r="B42" s="19"/>
-      <c r="C42" s="19"/>
-      <c r="D42" s="17" t="s">
+      <c r="A42" s="35"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="E42" s="7"/>
-      <c r="F42" s="7"/>
-      <c r="G42" s="7"/>
-      <c r="H42" s="7"/>
-      <c r="I42" s="7"/>
-      <c r="J42" s="7"/>
-      <c r="K42" s="15"/>
+      <c r="E42" s="17"/>
+      <c r="F42" s="17"/>
+      <c r="G42" s="17"/>
+      <c r="H42" s="17"/>
+      <c r="I42" s="17"/>
+      <c r="J42" s="17"/>
+      <c r="K42" s="18"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A43" s="32"/>
-      <c r="B43" s="19"/>
-      <c r="C43" s="19"/>
-      <c r="D43" s="6" t="s">
+      <c r="A43" s="35"/>
+      <c r="B43" s="9"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="E43" s="7"/>
-      <c r="F43" s="7"/>
-      <c r="G43" s="7"/>
-      <c r="H43" s="7"/>
-      <c r="I43" s="7"/>
-      <c r="J43" s="7"/>
-      <c r="K43" s="15"/>
+      <c r="E43" s="17"/>
+      <c r="F43" s="17"/>
+      <c r="G43" s="17"/>
+      <c r="H43" s="17"/>
+      <c r="I43" s="17"/>
+      <c r="J43" s="17"/>
+      <c r="K43" s="18"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A44" s="32"/>
-      <c r="B44" s="19"/>
-      <c r="C44" s="19"/>
-      <c r="D44" s="6" t="s">
+      <c r="A44" s="35"/>
+      <c r="B44" s="9"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="E44" s="7"/>
-      <c r="F44" s="7"/>
-      <c r="G44" s="7"/>
-      <c r="H44" s="7"/>
-      <c r="I44" s="7"/>
-      <c r="J44" s="7"/>
-      <c r="K44" s="15"/>
+      <c r="E44" s="17"/>
+      <c r="F44" s="17"/>
+      <c r="G44" s="17"/>
+      <c r="H44" s="17"/>
+      <c r="I44" s="17"/>
+      <c r="J44" s="17"/>
+      <c r="K44" s="18"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A45" s="32"/>
-      <c r="B45" s="20"/>
-      <c r="C45" s="20"/>
-      <c r="D45" s="8" t="s">
+      <c r="A45" s="35"/>
+      <c r="B45" s="8"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="E45" s="9"/>
-      <c r="F45" s="9"/>
-      <c r="G45" s="9"/>
-      <c r="H45" s="9"/>
-      <c r="I45" s="9"/>
-      <c r="J45" s="9"/>
-      <c r="K45" s="16"/>
+      <c r="E45" s="20"/>
+      <c r="F45" s="20"/>
+      <c r="G45" s="20"/>
+      <c r="H45" s="20"/>
+      <c r="I45" s="20"/>
+      <c r="J45" s="20"/>
+      <c r="K45" s="21"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A46" s="33" t="s">
+      <c r="A46" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="B46" s="18" t="s">
+      <c r="B46" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="C46" s="18" t="s">
+      <c r="C46" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="D46" s="51" t="s">
+      <c r="D46" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="E46" s="52"/>
-      <c r="F46" s="52"/>
-      <c r="G46" s="52"/>
-      <c r="H46" s="52"/>
-      <c r="I46" s="52"/>
-      <c r="J46" s="52"/>
-      <c r="K46" s="53"/>
+      <c r="E46" s="14"/>
+      <c r="F46" s="14"/>
+      <c r="G46" s="14"/>
+      <c r="H46" s="14"/>
+      <c r="I46" s="14"/>
+      <c r="J46" s="14"/>
+      <c r="K46" s="15"/>
     </row>
     <row r="47" spans="1:11" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="34"/>
-      <c r="B47" s="19"/>
-      <c r="C47" s="19"/>
-      <c r="D47" s="17" t="s">
+      <c r="A47" s="30"/>
+      <c r="B47" s="9"/>
+      <c r="C47" s="9"/>
+      <c r="D47" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="E47" s="7"/>
-      <c r="F47" s="7"/>
-      <c r="G47" s="7"/>
-      <c r="H47" s="7"/>
-      <c r="I47" s="7"/>
-      <c r="J47" s="7"/>
-      <c r="K47" s="15"/>
+      <c r="E47" s="17"/>
+      <c r="F47" s="17"/>
+      <c r="G47" s="17"/>
+      <c r="H47" s="17"/>
+      <c r="I47" s="17"/>
+      <c r="J47" s="17"/>
+      <c r="K47" s="18"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A48" s="34"/>
-      <c r="B48" s="19"/>
-      <c r="C48" s="19"/>
-      <c r="D48" s="6" t="s">
+      <c r="A48" s="30"/>
+      <c r="B48" s="9"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="E48" s="7"/>
-      <c r="F48" s="7"/>
-      <c r="G48" s="7"/>
-      <c r="H48" s="7"/>
-      <c r="I48" s="7"/>
-      <c r="J48" s="7"/>
-      <c r="K48" s="15"/>
+      <c r="E48" s="17"/>
+      <c r="F48" s="17"/>
+      <c r="G48" s="17"/>
+      <c r="H48" s="17"/>
+      <c r="I48" s="17"/>
+      <c r="J48" s="17"/>
+      <c r="K48" s="18"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A49" s="34"/>
-      <c r="B49" s="19"/>
-      <c r="C49" s="19"/>
-      <c r="D49" s="6" t="s">
+      <c r="A49" s="30"/>
+      <c r="B49" s="9"/>
+      <c r="C49" s="9"/>
+      <c r="D49" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="E49" s="7"/>
-      <c r="F49" s="7"/>
-      <c r="G49" s="7"/>
-      <c r="H49" s="7"/>
-      <c r="I49" s="7"/>
-      <c r="J49" s="7"/>
-      <c r="K49" s="15"/>
+      <c r="E49" s="17"/>
+      <c r="F49" s="17"/>
+      <c r="G49" s="17"/>
+      <c r="H49" s="17"/>
+      <c r="I49" s="17"/>
+      <c r="J49" s="17"/>
+      <c r="K49" s="18"/>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A50" s="34"/>
-      <c r="B50" s="19"/>
-      <c r="C50" s="20"/>
-      <c r="D50" s="8" t="s">
+      <c r="A50" s="30"/>
+      <c r="B50" s="9"/>
+      <c r="C50" s="8"/>
+      <c r="D50" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="E50" s="9"/>
-      <c r="F50" s="9"/>
-      <c r="G50" s="9"/>
-      <c r="H50" s="9"/>
-      <c r="I50" s="9"/>
-      <c r="J50" s="9"/>
-      <c r="K50" s="16"/>
+      <c r="E50" s="20"/>
+      <c r="F50" s="20"/>
+      <c r="G50" s="20"/>
+      <c r="H50" s="20"/>
+      <c r="I50" s="20"/>
+      <c r="J50" s="20"/>
+      <c r="K50" s="21"/>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A51" s="34"/>
-      <c r="B51" s="19"/>
-      <c r="C51" s="18" t="s">
+      <c r="A51" s="30"/>
+      <c r="B51" s="9"/>
+      <c r="C51" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="D51" s="51" t="s">
+      <c r="D51" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="E51" s="52"/>
-      <c r="F51" s="52"/>
-      <c r="G51" s="52"/>
-      <c r="H51" s="52"/>
-      <c r="I51" s="52"/>
-      <c r="J51" s="52"/>
-      <c r="K51" s="53"/>
+      <c r="E51" s="14"/>
+      <c r="F51" s="14"/>
+      <c r="G51" s="14"/>
+      <c r="H51" s="14"/>
+      <c r="I51" s="14"/>
+      <c r="J51" s="14"/>
+      <c r="K51" s="15"/>
     </row>
     <row r="52" spans="1:11" ht="43" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="34"/>
-      <c r="B52" s="19"/>
-      <c r="C52" s="19"/>
-      <c r="D52" s="17" t="s">
+      <c r="A52" s="30"/>
+      <c r="B52" s="9"/>
+      <c r="C52" s="9"/>
+      <c r="D52" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="E52" s="7"/>
-      <c r="F52" s="7"/>
-      <c r="G52" s="7"/>
-      <c r="H52" s="7"/>
-      <c r="I52" s="7"/>
-      <c r="J52" s="7"/>
-      <c r="K52" s="15"/>
+      <c r="E52" s="17"/>
+      <c r="F52" s="17"/>
+      <c r="G52" s="17"/>
+      <c r="H52" s="17"/>
+      <c r="I52" s="17"/>
+      <c r="J52" s="17"/>
+      <c r="K52" s="18"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A53" s="34"/>
-      <c r="B53" s="19"/>
-      <c r="C53" s="19"/>
-      <c r="D53" s="6" t="s">
+      <c r="A53" s="30"/>
+      <c r="B53" s="9"/>
+      <c r="C53" s="9"/>
+      <c r="D53" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="E53" s="7"/>
-      <c r="F53" s="7"/>
-      <c r="G53" s="7"/>
-      <c r="H53" s="7"/>
-      <c r="I53" s="7"/>
-      <c r="J53" s="7"/>
-      <c r="K53" s="15"/>
+      <c r="E53" s="17"/>
+      <c r="F53" s="17"/>
+      <c r="G53" s="17"/>
+      <c r="H53" s="17"/>
+      <c r="I53" s="17"/>
+      <c r="J53" s="17"/>
+      <c r="K53" s="18"/>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A54" s="34"/>
-      <c r="B54" s="19"/>
-      <c r="C54" s="19"/>
-      <c r="D54" s="6" t="s">
+      <c r="A54" s="30"/>
+      <c r="B54" s="9"/>
+      <c r="C54" s="9"/>
+      <c r="D54" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="E54" s="7"/>
-      <c r="F54" s="7"/>
-      <c r="G54" s="7"/>
-      <c r="H54" s="7"/>
-      <c r="I54" s="7"/>
-      <c r="J54" s="7"/>
-      <c r="K54" s="15"/>
+      <c r="E54" s="17"/>
+      <c r="F54" s="17"/>
+      <c r="G54" s="17"/>
+      <c r="H54" s="17"/>
+      <c r="I54" s="17"/>
+      <c r="J54" s="17"/>
+      <c r="K54" s="18"/>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A55" s="34"/>
-      <c r="B55" s="19"/>
-      <c r="C55" s="20"/>
-      <c r="D55" s="6" t="s">
+      <c r="A55" s="30"/>
+      <c r="B55" s="9"/>
+      <c r="C55" s="8"/>
+      <c r="D55" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="E55" s="7"/>
-      <c r="F55" s="7"/>
-      <c r="G55" s="7"/>
-      <c r="H55" s="7"/>
-      <c r="I55" s="7"/>
-      <c r="J55" s="7"/>
-      <c r="K55" s="15"/>
+      <c r="E55" s="17"/>
+      <c r="F55" s="17"/>
+      <c r="G55" s="17"/>
+      <c r="H55" s="17"/>
+      <c r="I55" s="17"/>
+      <c r="J55" s="17"/>
+      <c r="K55" s="18"/>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A56" s="34"/>
-      <c r="B56" s="19"/>
-      <c r="C56" s="18" t="s">
+      <c r="A56" s="30"/>
+      <c r="B56" s="9"/>
+      <c r="C56" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="D56" s="51" t="s">
+      <c r="D56" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="E56" s="52"/>
-      <c r="F56" s="52"/>
-      <c r="G56" s="52"/>
-      <c r="H56" s="52"/>
-      <c r="I56" s="52"/>
-      <c r="J56" s="52"/>
-      <c r="K56" s="53"/>
+      <c r="E56" s="14"/>
+      <c r="F56" s="14"/>
+      <c r="G56" s="14"/>
+      <c r="H56" s="14"/>
+      <c r="I56" s="14"/>
+      <c r="J56" s="14"/>
+      <c r="K56" s="15"/>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A57" s="34"/>
-      <c r="B57" s="19"/>
-      <c r="C57" s="19"/>
-      <c r="D57" s="6" t="s">
+      <c r="A57" s="30"/>
+      <c r="B57" s="9"/>
+      <c r="C57" s="9"/>
+      <c r="D57" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="E57" s="7"/>
-      <c r="F57" s="7"/>
-      <c r="G57" s="7"/>
-      <c r="H57" s="7"/>
-      <c r="I57" s="7"/>
-      <c r="J57" s="7"/>
-      <c r="K57" s="15"/>
+      <c r="E57" s="17"/>
+      <c r="F57" s="17"/>
+      <c r="G57" s="17"/>
+      <c r="H57" s="17"/>
+      <c r="I57" s="17"/>
+      <c r="J57" s="17"/>
+      <c r="K57" s="18"/>
     </row>
     <row r="58" spans="1:11" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="34"/>
-      <c r="B58" s="19"/>
-      <c r="C58" s="19"/>
-      <c r="D58" s="17" t="s">
+      <c r="A58" s="30"/>
+      <c r="B58" s="9"/>
+      <c r="C58" s="9"/>
+      <c r="D58" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="E58" s="36"/>
-      <c r="F58" s="36"/>
-      <c r="G58" s="36"/>
-      <c r="H58" s="36"/>
-      <c r="I58" s="36"/>
-      <c r="J58" s="36"/>
-      <c r="K58" s="37"/>
+      <c r="E58" s="32"/>
+      <c r="F58" s="32"/>
+      <c r="G58" s="32"/>
+      <c r="H58" s="32"/>
+      <c r="I58" s="32"/>
+      <c r="J58" s="32"/>
+      <c r="K58" s="33"/>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A59" s="34"/>
-      <c r="B59" s="19"/>
-      <c r="C59" s="20"/>
-      <c r="D59" s="8" t="s">
+      <c r="A59" s="30"/>
+      <c r="B59" s="9"/>
+      <c r="C59" s="8"/>
+      <c r="D59" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="E59" s="9"/>
-      <c r="F59" s="9"/>
-      <c r="G59" s="9"/>
-      <c r="H59" s="9"/>
-      <c r="I59" s="9"/>
-      <c r="J59" s="9"/>
-      <c r="K59" s="16"/>
+      <c r="E59" s="20"/>
+      <c r="F59" s="20"/>
+      <c r="G59" s="20"/>
+      <c r="H59" s="20"/>
+      <c r="I59" s="20"/>
+      <c r="J59" s="20"/>
+      <c r="K59" s="21"/>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A60" s="34"/>
-      <c r="B60" s="19"/>
-      <c r="C60" s="18" t="s">
+      <c r="A60" s="30"/>
+      <c r="B60" s="9"/>
+      <c r="C60" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="D60" s="51" t="s">
+      <c r="D60" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="E60" s="52"/>
-      <c r="F60" s="52"/>
-      <c r="G60" s="52"/>
-      <c r="H60" s="52"/>
-      <c r="I60" s="52"/>
-      <c r="J60" s="52"/>
-      <c r="K60" s="53"/>
+      <c r="E60" s="14"/>
+      <c r="F60" s="14"/>
+      <c r="G60" s="14"/>
+      <c r="H60" s="14"/>
+      <c r="I60" s="14"/>
+      <c r="J60" s="14"/>
+      <c r="K60" s="15"/>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A61" s="34"/>
-      <c r="B61" s="19"/>
-      <c r="C61" s="19"/>
-      <c r="D61" s="6" t="s">
+      <c r="A61" s="30"/>
+      <c r="B61" s="9"/>
+      <c r="C61" s="9"/>
+      <c r="D61" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="E61" s="7"/>
-      <c r="F61" s="7"/>
-      <c r="G61" s="7"/>
-      <c r="H61" s="7"/>
-      <c r="I61" s="7"/>
-      <c r="J61" s="7"/>
-      <c r="K61" s="15"/>
+      <c r="E61" s="17"/>
+      <c r="F61" s="17"/>
+      <c r="G61" s="17"/>
+      <c r="H61" s="17"/>
+      <c r="I61" s="17"/>
+      <c r="J61" s="17"/>
+      <c r="K61" s="18"/>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A62" s="35"/>
-      <c r="B62" s="20"/>
-      <c r="C62" s="20"/>
-      <c r="D62" s="8" t="s">
+      <c r="A62" s="31"/>
+      <c r="B62" s="8"/>
+      <c r="C62" s="8"/>
+      <c r="D62" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="E62" s="9"/>
-      <c r="F62" s="9"/>
-      <c r="G62" s="9"/>
-      <c r="H62" s="9"/>
-      <c r="I62" s="9"/>
-      <c r="J62" s="9"/>
-      <c r="K62" s="16"/>
+      <c r="E62" s="20"/>
+      <c r="F62" s="20"/>
+      <c r="G62" s="20"/>
+      <c r="H62" s="20"/>
+      <c r="I62" s="20"/>
+      <c r="J62" s="20"/>
+      <c r="K62" s="21"/>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A63" s="38" t="s">
+      <c r="A63" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="B63" s="18" t="s">
+      <c r="B63" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="C63" s="22" t="s">
+      <c r="C63" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="D63" s="51" t="s">
+      <c r="D63" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="E63" s="52"/>
-      <c r="F63" s="52"/>
-      <c r="G63" s="52"/>
-      <c r="H63" s="52"/>
-      <c r="I63" s="52"/>
-      <c r="J63" s="52"/>
-      <c r="K63" s="53"/>
+      <c r="E63" s="14"/>
+      <c r="F63" s="14"/>
+      <c r="G63" s="14"/>
+      <c r="H63" s="14"/>
+      <c r="I63" s="14"/>
+      <c r="J63" s="14"/>
+      <c r="K63" s="15"/>
     </row>
     <row r="64" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="39"/>
-      <c r="B64" s="19"/>
-      <c r="C64" s="23"/>
-      <c r="D64" s="17" t="s">
+      <c r="A64" s="11"/>
+      <c r="B64" s="9"/>
+      <c r="C64" s="26"/>
+      <c r="D64" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="E64" s="7"/>
-      <c r="F64" s="7"/>
-      <c r="G64" s="7"/>
-      <c r="H64" s="7"/>
-      <c r="I64" s="7"/>
-      <c r="J64" s="7"/>
-      <c r="K64" s="15"/>
+      <c r="E64" s="17"/>
+      <c r="F64" s="17"/>
+      <c r="G64" s="17"/>
+      <c r="H64" s="17"/>
+      <c r="I64" s="17"/>
+      <c r="J64" s="17"/>
+      <c r="K64" s="18"/>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A65" s="39"/>
-      <c r="B65" s="19"/>
-      <c r="C65" s="23"/>
-      <c r="D65" s="6" t="s">
+      <c r="A65" s="11"/>
+      <c r="B65" s="9"/>
+      <c r="C65" s="26"/>
+      <c r="D65" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="E65" s="7"/>
-      <c r="F65" s="7"/>
-      <c r="G65" s="7"/>
-      <c r="H65" s="7"/>
-      <c r="I65" s="7"/>
-      <c r="J65" s="7"/>
-      <c r="K65" s="15"/>
+      <c r="E65" s="17"/>
+      <c r="F65" s="17"/>
+      <c r="G65" s="17"/>
+      <c r="H65" s="17"/>
+      <c r="I65" s="17"/>
+      <c r="J65" s="17"/>
+      <c r="K65" s="18"/>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A66" s="39"/>
-      <c r="B66" s="19"/>
-      <c r="C66" s="23"/>
-      <c r="D66" s="6" t="s">
+      <c r="A66" s="11"/>
+      <c r="B66" s="9"/>
+      <c r="C66" s="26"/>
+      <c r="D66" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="E66" s="7"/>
-      <c r="F66" s="7"/>
-      <c r="G66" s="7"/>
-      <c r="H66" s="7"/>
-      <c r="I66" s="7"/>
-      <c r="J66" s="7"/>
-      <c r="K66" s="15"/>
+      <c r="E66" s="17"/>
+      <c r="F66" s="17"/>
+      <c r="G66" s="17"/>
+      <c r="H66" s="17"/>
+      <c r="I66" s="17"/>
+      <c r="J66" s="17"/>
+      <c r="K66" s="18"/>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A67" s="39"/>
-      <c r="B67" s="19"/>
-      <c r="C67" s="24"/>
-      <c r="D67" s="8" t="s">
+      <c r="A67" s="11"/>
+      <c r="B67" s="9"/>
+      <c r="C67" s="27"/>
+      <c r="D67" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="E67" s="9"/>
-      <c r="F67" s="9"/>
-      <c r="G67" s="9"/>
-      <c r="H67" s="9"/>
-      <c r="I67" s="9"/>
-      <c r="J67" s="9"/>
-      <c r="K67" s="16"/>
+      <c r="E67" s="20"/>
+      <c r="F67" s="20"/>
+      <c r="G67" s="20"/>
+      <c r="H67" s="20"/>
+      <c r="I67" s="20"/>
+      <c r="J67" s="20"/>
+      <c r="K67" s="21"/>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A68" s="39"/>
-      <c r="B68" s="19"/>
-      <c r="C68" s="22" t="s">
+      <c r="A68" s="11"/>
+      <c r="B68" s="9"/>
+      <c r="C68" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="D68" s="51" t="s">
+      <c r="D68" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="E68" s="52"/>
-      <c r="F68" s="52"/>
-      <c r="G68" s="52"/>
-      <c r="H68" s="52"/>
-      <c r="I68" s="52"/>
-      <c r="J68" s="52"/>
-      <c r="K68" s="53"/>
+      <c r="E68" s="14"/>
+      <c r="F68" s="14"/>
+      <c r="G68" s="14"/>
+      <c r="H68" s="14"/>
+      <c r="I68" s="14"/>
+      <c r="J68" s="14"/>
+      <c r="K68" s="15"/>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A69" s="39"/>
-      <c r="B69" s="19"/>
-      <c r="C69" s="23"/>
-      <c r="D69" s="6" t="s">
+      <c r="A69" s="11"/>
+      <c r="B69" s="9"/>
+      <c r="C69" s="26"/>
+      <c r="D69" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="E69" s="7"/>
-      <c r="F69" s="7"/>
-      <c r="G69" s="7"/>
-      <c r="H69" s="7"/>
-      <c r="I69" s="7"/>
-      <c r="J69" s="7"/>
-      <c r="K69" s="15"/>
+      <c r="E69" s="17"/>
+      <c r="F69" s="17"/>
+      <c r="G69" s="17"/>
+      <c r="H69" s="17"/>
+      <c r="I69" s="17"/>
+      <c r="J69" s="17"/>
+      <c r="K69" s="18"/>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A70" s="39"/>
-      <c r="B70" s="19"/>
-      <c r="C70" s="24"/>
-      <c r="D70" s="8" t="s">
+      <c r="A70" s="11"/>
+      <c r="B70" s="9"/>
+      <c r="C70" s="27"/>
+      <c r="D70" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="E70" s="9"/>
-      <c r="F70" s="9"/>
-      <c r="G70" s="9"/>
-      <c r="H70" s="9"/>
-      <c r="I70" s="9"/>
-      <c r="J70" s="9"/>
-      <c r="K70" s="16"/>
+      <c r="E70" s="20"/>
+      <c r="F70" s="20"/>
+      <c r="G70" s="20"/>
+      <c r="H70" s="20"/>
+      <c r="I70" s="20"/>
+      <c r="J70" s="20"/>
+      <c r="K70" s="21"/>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A71" s="39"/>
-      <c r="B71" s="19"/>
-      <c r="C71" s="22" t="s">
+      <c r="A71" s="11"/>
+      <c r="B71" s="9"/>
+      <c r="C71" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="D71" s="51" t="s">
+      <c r="D71" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="E71" s="52"/>
-      <c r="F71" s="52"/>
-      <c r="G71" s="52"/>
-      <c r="H71" s="52"/>
-      <c r="I71" s="52"/>
-      <c r="J71" s="52"/>
-      <c r="K71" s="53"/>
+      <c r="E71" s="14"/>
+      <c r="F71" s="14"/>
+      <c r="G71" s="14"/>
+      <c r="H71" s="14"/>
+      <c r="I71" s="14"/>
+      <c r="J71" s="14"/>
+      <c r="K71" s="15"/>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A72" s="39"/>
-      <c r="B72" s="19"/>
-      <c r="C72" s="23"/>
-      <c r="D72" s="6" t="s">
+      <c r="A72" s="11"/>
+      <c r="B72" s="9"/>
+      <c r="C72" s="26"/>
+      <c r="D72" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="E72" s="7"/>
-      <c r="F72" s="7"/>
-      <c r="G72" s="7"/>
-      <c r="H72" s="7"/>
-      <c r="I72" s="7"/>
-      <c r="J72" s="7"/>
-      <c r="K72" s="15"/>
+      <c r="E72" s="17"/>
+      <c r="F72" s="17"/>
+      <c r="G72" s="17"/>
+      <c r="H72" s="17"/>
+      <c r="I72" s="17"/>
+      <c r="J72" s="17"/>
+      <c r="K72" s="18"/>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A73" s="39"/>
-      <c r="B73" s="19"/>
-      <c r="C73" s="24"/>
-      <c r="D73" s="8" t="s">
+      <c r="A73" s="11"/>
+      <c r="B73" s="9"/>
+      <c r="C73" s="27"/>
+      <c r="D73" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="E73" s="9"/>
-      <c r="F73" s="9"/>
-      <c r="G73" s="9"/>
-      <c r="H73" s="9"/>
-      <c r="I73" s="9"/>
-      <c r="J73" s="9"/>
-      <c r="K73" s="16"/>
+      <c r="E73" s="20"/>
+      <c r="F73" s="20"/>
+      <c r="G73" s="20"/>
+      <c r="H73" s="20"/>
+      <c r="I73" s="20"/>
+      <c r="J73" s="20"/>
+      <c r="K73" s="21"/>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A74" s="39"/>
-      <c r="B74" s="19"/>
-      <c r="C74" s="18" t="s">
+      <c r="A74" s="11"/>
+      <c r="B74" s="9"/>
+      <c r="C74" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="D74" s="4" t="s">
+      <c r="D74" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="E74" s="5"/>
-      <c r="F74" s="5"/>
-      <c r="G74" s="5"/>
-      <c r="H74" s="5"/>
-      <c r="I74" s="5"/>
-      <c r="J74" s="5"/>
-      <c r="K74" s="14"/>
+      <c r="E74" s="23"/>
+      <c r="F74" s="23"/>
+      <c r="G74" s="23"/>
+      <c r="H74" s="23"/>
+      <c r="I74" s="23"/>
+      <c r="J74" s="23"/>
+      <c r="K74" s="24"/>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A75" s="40"/>
-      <c r="B75" s="20"/>
-      <c r="C75" s="20"/>
-      <c r="D75" s="13" t="s">
+      <c r="A75" s="12"/>
+      <c r="B75" s="8"/>
+      <c r="C75" s="8"/>
+      <c r="D75" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="E75" s="10"/>
-      <c r="F75" s="10"/>
-      <c r="G75" s="10"/>
-      <c r="H75" s="10"/>
-      <c r="I75" s="10"/>
-      <c r="J75" s="10"/>
-      <c r="K75" s="11"/>
+      <c r="E75" s="5"/>
+      <c r="F75" s="5"/>
+      <c r="G75" s="5"/>
+      <c r="H75" s="5"/>
+      <c r="I75" s="5"/>
+      <c r="J75" s="5"/>
+      <c r="K75" s="6"/>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A77" s="12"/>
-      <c r="B77" s="41"/>
-      <c r="C77" s="41"/>
+      <c r="A77" s="3"/>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A78" s="1"/>
@@ -2464,83 +2473,10 @@
     </row>
   </sheetData>
   <mergeCells count="103">
-    <mergeCell ref="D75:K75"/>
-    <mergeCell ref="C74:C75"/>
-    <mergeCell ref="B63:B75"/>
-    <mergeCell ref="A63:A75"/>
-    <mergeCell ref="D71:K71"/>
-    <mergeCell ref="D72:K72"/>
-    <mergeCell ref="D73:K73"/>
-    <mergeCell ref="D74:K74"/>
-    <mergeCell ref="C71:C73"/>
-    <mergeCell ref="D68:K68"/>
-    <mergeCell ref="D69:K69"/>
-    <mergeCell ref="D70:K70"/>
-    <mergeCell ref="C68:C70"/>
-    <mergeCell ref="D63:K63"/>
-    <mergeCell ref="D64:K64"/>
-    <mergeCell ref="D65:K65"/>
-    <mergeCell ref="D66:K66"/>
-    <mergeCell ref="D67:K67"/>
-    <mergeCell ref="C63:C67"/>
-    <mergeCell ref="D60:K60"/>
-    <mergeCell ref="D61:K61"/>
-    <mergeCell ref="D62:K62"/>
-    <mergeCell ref="C60:C62"/>
-    <mergeCell ref="B46:B62"/>
-    <mergeCell ref="A46:A62"/>
-    <mergeCell ref="D56:K56"/>
-    <mergeCell ref="D57:K57"/>
-    <mergeCell ref="D58:K58"/>
-    <mergeCell ref="D59:K59"/>
-    <mergeCell ref="C56:C59"/>
-    <mergeCell ref="D51:K51"/>
-    <mergeCell ref="D52:K52"/>
-    <mergeCell ref="D53:K53"/>
-    <mergeCell ref="D54:K54"/>
-    <mergeCell ref="D55:K55"/>
-    <mergeCell ref="C51:C55"/>
-    <mergeCell ref="D48:K48"/>
-    <mergeCell ref="D49:K49"/>
-    <mergeCell ref="D50:K50"/>
-    <mergeCell ref="C46:C50"/>
-    <mergeCell ref="D45:K45"/>
-    <mergeCell ref="C41:C45"/>
-    <mergeCell ref="B36:B45"/>
-    <mergeCell ref="A36:A45"/>
-    <mergeCell ref="D46:K46"/>
-    <mergeCell ref="D47:K47"/>
-    <mergeCell ref="D41:K41"/>
-    <mergeCell ref="D42:K42"/>
-    <mergeCell ref="D43:K43"/>
-    <mergeCell ref="D44:K44"/>
-    <mergeCell ref="D36:K36"/>
-    <mergeCell ref="D37:K37"/>
-    <mergeCell ref="D38:K38"/>
-    <mergeCell ref="D39:K39"/>
-    <mergeCell ref="D40:K40"/>
-    <mergeCell ref="C36:C40"/>
-    <mergeCell ref="D33:K33"/>
-    <mergeCell ref="D34:K34"/>
-    <mergeCell ref="D35:K35"/>
-    <mergeCell ref="C33:C35"/>
-    <mergeCell ref="B20:B35"/>
-    <mergeCell ref="A20:A35"/>
-    <mergeCell ref="D30:K30"/>
-    <mergeCell ref="D31:K31"/>
-    <mergeCell ref="D32:K32"/>
-    <mergeCell ref="C30:C32"/>
-    <mergeCell ref="D25:K25"/>
-    <mergeCell ref="D26:K26"/>
-    <mergeCell ref="D27:K27"/>
-    <mergeCell ref="D28:K28"/>
-    <mergeCell ref="D29:K29"/>
-    <mergeCell ref="C25:C29"/>
-    <mergeCell ref="D21:K21"/>
-    <mergeCell ref="D22:K22"/>
-    <mergeCell ref="D23:K23"/>
-    <mergeCell ref="D24:K24"/>
-    <mergeCell ref="C20:C24"/>
+    <mergeCell ref="D2:K2"/>
+    <mergeCell ref="D3:K3"/>
+    <mergeCell ref="D4:K4"/>
+    <mergeCell ref="D5:K5"/>
     <mergeCell ref="D18:K18"/>
     <mergeCell ref="D19:K19"/>
     <mergeCell ref="C18:C19"/>
@@ -2563,10 +2499,83 @@
     <mergeCell ref="D11:K11"/>
     <mergeCell ref="C6:C10"/>
     <mergeCell ref="C3:C5"/>
-    <mergeCell ref="D2:K2"/>
-    <mergeCell ref="D3:K3"/>
-    <mergeCell ref="D4:K4"/>
-    <mergeCell ref="D5:K5"/>
+    <mergeCell ref="D33:K33"/>
+    <mergeCell ref="D34:K34"/>
+    <mergeCell ref="D35:K35"/>
+    <mergeCell ref="C33:C35"/>
+    <mergeCell ref="B20:B35"/>
+    <mergeCell ref="A20:A35"/>
+    <mergeCell ref="D30:K30"/>
+    <mergeCell ref="D31:K31"/>
+    <mergeCell ref="D32:K32"/>
+    <mergeCell ref="C30:C32"/>
+    <mergeCell ref="D25:K25"/>
+    <mergeCell ref="D26:K26"/>
+    <mergeCell ref="D27:K27"/>
+    <mergeCell ref="D28:K28"/>
+    <mergeCell ref="D29:K29"/>
+    <mergeCell ref="C25:C29"/>
+    <mergeCell ref="D21:K21"/>
+    <mergeCell ref="D22:K22"/>
+    <mergeCell ref="D23:K23"/>
+    <mergeCell ref="D24:K24"/>
+    <mergeCell ref="C20:C24"/>
+    <mergeCell ref="D45:K45"/>
+    <mergeCell ref="C41:C45"/>
+    <mergeCell ref="B36:B45"/>
+    <mergeCell ref="A36:A45"/>
+    <mergeCell ref="D46:K46"/>
+    <mergeCell ref="D47:K47"/>
+    <mergeCell ref="D41:K41"/>
+    <mergeCell ref="D42:K42"/>
+    <mergeCell ref="D43:K43"/>
+    <mergeCell ref="D44:K44"/>
+    <mergeCell ref="D36:K36"/>
+    <mergeCell ref="D37:K37"/>
+    <mergeCell ref="D38:K38"/>
+    <mergeCell ref="D39:K39"/>
+    <mergeCell ref="D40:K40"/>
+    <mergeCell ref="C36:C40"/>
+    <mergeCell ref="D60:K60"/>
+    <mergeCell ref="D61:K61"/>
+    <mergeCell ref="D62:K62"/>
+    <mergeCell ref="C60:C62"/>
+    <mergeCell ref="B46:B62"/>
+    <mergeCell ref="A46:A62"/>
+    <mergeCell ref="D56:K56"/>
+    <mergeCell ref="D57:K57"/>
+    <mergeCell ref="D58:K58"/>
+    <mergeCell ref="D59:K59"/>
+    <mergeCell ref="C56:C59"/>
+    <mergeCell ref="D51:K51"/>
+    <mergeCell ref="D52:K52"/>
+    <mergeCell ref="D53:K53"/>
+    <mergeCell ref="D54:K54"/>
+    <mergeCell ref="D55:K55"/>
+    <mergeCell ref="C51:C55"/>
+    <mergeCell ref="D48:K48"/>
+    <mergeCell ref="D49:K49"/>
+    <mergeCell ref="D50:K50"/>
+    <mergeCell ref="C46:C50"/>
+    <mergeCell ref="D75:K75"/>
+    <mergeCell ref="C74:C75"/>
+    <mergeCell ref="B63:B75"/>
+    <mergeCell ref="A63:A75"/>
+    <mergeCell ref="D71:K71"/>
+    <mergeCell ref="D72:K72"/>
+    <mergeCell ref="D73:K73"/>
+    <mergeCell ref="D74:K74"/>
+    <mergeCell ref="C71:C73"/>
+    <mergeCell ref="D68:K68"/>
+    <mergeCell ref="D69:K69"/>
+    <mergeCell ref="D70:K70"/>
+    <mergeCell ref="C68:C70"/>
+    <mergeCell ref="D63:K63"/>
+    <mergeCell ref="D64:K64"/>
+    <mergeCell ref="D65:K65"/>
+    <mergeCell ref="D66:K66"/>
+    <mergeCell ref="D67:K67"/>
+    <mergeCell ref="C63:C67"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
